--- a/Get_Properties_Notebook-WI/gp_start_folder/pyrmd_properties_postprocessed_for_pyrmd1_to_pyrmd7.xlsx
+++ b/Get_Properties_Notebook-WI/gp_start_folder/pyrmd_properties_postprocessed_for_pyrmd1_to_pyrmd7.xlsx
@@ -3384,7 +3384,8 @@
     <col min="22" max="22" width="24.7109375" customWidth="1"/>
     <col min="23" max="23" width="21.7109375" customWidth="1"/>
     <col min="24" max="24" width="18.7109375" customWidth="1"/>
-    <col min="25" max="31" width="22.7109375" customWidth="1"/>
+    <col min="25" max="25" width="21.7109375" customWidth="1"/>
+    <col min="26" max="31" width="22.7109375" customWidth="1"/>
     <col min="32" max="35" width="21.7109375" customWidth="1"/>
     <col min="36" max="37" width="20.7109375" customWidth="1"/>
     <col min="38" max="38" width="21.7109375" customWidth="1"/>
@@ -4323,7 +4324,7 @@
         <v>547.0668505608598</v>
       </c>
       <c r="Y3">
-        <v>0.869423804096683</v>
+        <v>0.8694238040966833</v>
       </c>
       <c r="Z3">
         <v>0.56719</v>
@@ -4647,7 +4648,7 @@
         <v>-0.39699</v>
       </c>
       <c r="EC3">
-        <v>4.61244</v>
+        <v>4.612439999999999</v>
       </c>
       <c r="ED3">
         <v>0.2938055555555555</v>
@@ -4910,7 +4911,7 @@
         <v>1.7</v>
       </c>
       <c r="CH4">
-        <v>9.209992675346978</v>
+        <v>9.20999267534698</v>
       </c>
       <c r="CI4">
         <v>7.756457539799028</v>
@@ -5027,7 +5028,7 @@
         <v>0.001083710813624691</v>
       </c>
       <c r="DU4">
-        <v>7.811669884847241</v>
+        <v>7.811669884847245</v>
       </c>
       <c r="DV4">
         <v>0.008209709769673459</v>
@@ -5051,7 +5052,7 @@
         <v>-0.39633</v>
       </c>
       <c r="EC4">
-        <v>4.162059999999999</v>
+        <v>4.16206</v>
       </c>
       <c r="ED4">
         <v>0.2639444444444444</v>
@@ -5344,7 +5345,7 @@
         <v>6.29815713656938</v>
       </c>
       <c r="CR5">
-        <v>1.863355859278086</v>
+        <v>1.863355859278087</v>
       </c>
       <c r="CS5">
         <v>4.436496365376624</v>
@@ -5499,7 +5500,7 @@
         <v>549.8435789405432</v>
       </c>
       <c r="Y6">
-        <v>0.8667558188749543</v>
+        <v>0.8667558188749545</v>
       </c>
       <c r="Z6">
         <v>0.5670291342608552</v>
@@ -5867,7 +5868,7 @@
         <v>2.278524720215623</v>
       </c>
       <c r="Y7">
-        <v>0.00418840607455555</v>
+        <v>0.004188406074555623</v>
       </c>
       <c r="Z7">
         <v>0.0001330776339797817</v>
@@ -6050,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="CH7">
-        <v>0.9114130789851559</v>
+        <v>0.9114130789851562</v>
       </c>
       <c r="CI7">
         <v>0.5547418075168411</v>
@@ -6080,7 +6081,7 @@
         <v>0.07166539484549371</v>
       </c>
       <c r="CR7">
-        <v>0.04441161305758681</v>
+        <v>0.04441161305758674</v>
       </c>
       <c r="CS7">
         <v>0.5937953977835519</v>
@@ -6167,7 +6168,7 @@
         <v>0.0001903804687250428</v>
       </c>
       <c r="DU7">
-        <v>0.009141796647095878</v>
+        <v>0.009141796647094998</v>
       </c>
       <c r="DV7">
         <v>0.0002774549390712655</v>
@@ -6442,7 +6443,7 @@
         <v>6.29815713656938</v>
       </c>
       <c r="CR8">
-        <v>1.863355859278086</v>
+        <v>1.863355859278087</v>
       </c>
       <c r="CS8">
         <v>4.41021541423999</v>
@@ -6774,7 +6775,7 @@
         <v>1.7</v>
       </c>
       <c r="CH9">
-        <v>9.209992675346978</v>
+        <v>9.20999267534698</v>
       </c>
       <c r="CI9">
         <v>7.757330046265048</v>
@@ -7136,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="CH10">
-        <v>2.647893148659321</v>
+        <v>2.647893148659323</v>
       </c>
       <c r="CI10">
         <v>1.563785810008054</v>
@@ -7166,7 +7167,7 @@
         <v>0.2048165791065975</v>
       </c>
       <c r="CR10">
-        <v>0.08664414072191406</v>
+        <v>0.08664414072191295</v>
       </c>
       <c r="CS10">
         <v>1.447471842690002</v>
@@ -7755,7 +7756,7 @@
         <v>547.0668505608598</v>
       </c>
       <c r="Y12">
-        <v>0.869423804096683</v>
+        <v>0.8694238040966833</v>
       </c>
       <c r="Z12">
         <v>0.56719</v>
@@ -8079,7 +8080,7 @@
         <v>-0.39699</v>
       </c>
       <c r="EC12">
-        <v>4.61244</v>
+        <v>4.612439999999999</v>
       </c>
       <c r="ED12">
         <v>0.2938055555555555</v>
@@ -8159,7 +8160,7 @@
         <v>635.4113857412038</v>
       </c>
       <c r="Y13">
-        <v>0.846277796827459</v>
+        <v>0.8462777968274593</v>
       </c>
       <c r="Z13">
         <v>0.45993</v>
@@ -8563,7 +8564,7 @@
         <v>634.9127927439674</v>
       </c>
       <c r="Y14">
-        <v>0.8468777226911463</v>
+        <v>0.8468777226911464</v>
       </c>
       <c r="Z14">
         <v>0.45993</v>
@@ -8931,7 +8932,7 @@
         <v>635.1620892425856</v>
       </c>
       <c r="Y15">
-        <v>0.8465777597593026</v>
+        <v>0.8465777597593028</v>
       </c>
       <c r="Z15">
         <v>0.45993</v>
@@ -9299,7 +9300,7 @@
         <v>0.3525584893979944</v>
       </c>
       <c r="Y16">
-        <v>0.0004242116464224788</v>
+        <v>0.0004242116464223217</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -9661,7 +9662,7 @@
         <v>634.9127927439674</v>
       </c>
       <c r="Y17">
-        <v>0.846277796827459</v>
+        <v>0.8462777968274593</v>
       </c>
       <c r="Z17">
         <v>0.45993</v>
@@ -10023,7 +10024,7 @@
         <v>635.4113857412038</v>
       </c>
       <c r="Y18">
-        <v>0.8468777226911463</v>
+        <v>0.8468777226911464</v>
       </c>
       <c r="Z18">
         <v>0.45993</v>
@@ -10385,7 +10386,7 @@
         <v>0.4985929972364147</v>
       </c>
       <c r="Y19">
-        <v>0.0005999258636872895</v>
+        <v>0.0005999258636870675</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -10783,7 +10784,7 @@
         <v>635.4113857412038</v>
       </c>
       <c r="Y20">
-        <v>0.846277796827459</v>
+        <v>0.8462777968274593</v>
       </c>
       <c r="Z20">
         <v>0.45993</v>
@@ -11187,7 +11188,7 @@
         <v>634.9127927439674</v>
       </c>
       <c r="Y21">
-        <v>0.8468777226911463</v>
+        <v>0.8468777226911464</v>
       </c>
       <c r="Z21">
         <v>0.45993</v>
@@ -11591,7 +11592,7 @@
         <v>433.4619006277429</v>
       </c>
       <c r="Y22">
-        <v>0.9018376283153727</v>
+        <v>0.9018376283153726</v>
       </c>
       <c r="Z22">
         <v>0.36858</v>
@@ -11759,13 +11760,13 @@
         <v>4.419916575002755</v>
       </c>
       <c r="CC22">
-        <v>4.245051713941523</v>
+        <v>4.245051713941524</v>
       </c>
       <c r="CD22">
         <v>1.729356706822647</v>
       </c>
       <c r="CE22">
-        <v>6.532890941731766</v>
+        <v>6.532890941731768</v>
       </c>
       <c r="CF22">
         <v>4.245053626364541</v>
@@ -11786,7 +11787,7 @@
         <v>4.419916575002755</v>
       </c>
       <c r="CL22">
-        <v>4.245051713941523</v>
+        <v>4.245051713941524</v>
       </c>
       <c r="CM22">
         <v>1.729356706822647</v>
@@ -11891,7 +11892,7 @@
         <v>0.004333704919827257</v>
       </c>
       <c r="DU22">
-        <v>8.534704687675115</v>
+        <v>8.534704687675118</v>
       </c>
       <c r="DV22">
         <v>1.997836723101532</v>
@@ -12363,7 +12364,7 @@
         <v>432.3033906959799</v>
       </c>
       <c r="Y24">
-        <v>0.9023686425488605</v>
+        <v>0.9023686425488604</v>
       </c>
       <c r="Z24">
         <v>0.3683517416539773</v>
@@ -12531,13 +12532,13 @@
         <v>4.420304653384798</v>
       </c>
       <c r="CC24">
-        <v>4.245217094030927</v>
+        <v>4.245217094030928</v>
       </c>
       <c r="CD24">
         <v>1.760348367533432</v>
       </c>
       <c r="CE24">
-        <v>6.693780674090358</v>
+        <v>6.693780674090359</v>
       </c>
       <c r="CF24">
         <v>4.24552108712616</v>
@@ -12558,7 +12559,7 @@
         <v>4.420304653384798</v>
       </c>
       <c r="CL24">
-        <v>4.245217094030927</v>
+        <v>4.245217094030928</v>
       </c>
       <c r="CM24">
         <v>1.760348367533432</v>
@@ -12663,7 +12664,7 @@
         <v>0.002791085358509321</v>
       </c>
       <c r="DU24">
-        <v>8.534195790753538</v>
+        <v>8.534195790753541</v>
       </c>
       <c r="DV24">
         <v>1.998602259037715</v>
@@ -12731,7 +12732,7 @@
         <v>2.200461774093544</v>
       </c>
       <c r="Y25">
-        <v>0.001008602939217907</v>
+        <v>0.001008602939217982</v>
       </c>
       <c r="Z25">
         <v>0.0004335515400169021</v>
@@ -12899,13 +12900,13 @@
         <v>0.0007371120623330271</v>
       </c>
       <c r="CC25">
-        <v>0.0003141212301710611</v>
+        <v>0.0003141212301704594</v>
       </c>
       <c r="CD25">
         <v>0.05886523959788331</v>
       </c>
       <c r="CE25">
-        <v>0.3055922924721511</v>
+        <v>0.3055922924721499</v>
       </c>
       <c r="CF25">
         <v>0.0008878901325127569</v>
@@ -12926,7 +12927,7 @@
         <v>0.0007371120623330271</v>
       </c>
       <c r="CL25">
-        <v>0.0003141212301710611</v>
+        <v>0.0003141212301704594</v>
       </c>
       <c r="CM25">
         <v>0.05886523959788331</v>
@@ -13031,7 +13032,7 @@
         <v>0.002930035629028498</v>
       </c>
       <c r="DU25">
-        <v>0.0009665935458833165</v>
+        <v>0.0009665935458857233</v>
       </c>
       <c r="DV25">
         <v>0.00145405103407416</v>
@@ -13093,7 +13094,7 @@
         <v>430.2136235362464</v>
       </c>
       <c r="Y26">
-        <v>0.9018376283153727</v>
+        <v>0.9018376283153726</v>
       </c>
       <c r="Z26">
         <v>0.36794</v>
@@ -13261,13 +13262,13 @@
         <v>4.419916575002755</v>
       </c>
       <c r="CC26">
-        <v>4.245051713941523</v>
+        <v>4.245051713941524</v>
       </c>
       <c r="CD26">
         <v>1.729356706822647</v>
       </c>
       <c r="CE26">
-        <v>6.532890941731766</v>
+        <v>6.532890941731768</v>
       </c>
       <c r="CF26">
         <v>4.245053626364541</v>
@@ -13288,7 +13289,7 @@
         <v>4.419916575002755</v>
       </c>
       <c r="CL26">
-        <v>4.245051713941523</v>
+        <v>4.245051713941524</v>
       </c>
       <c r="CM26">
         <v>1.729356706822647</v>
@@ -13755,7 +13756,7 @@
         <v>0.004333704919827257</v>
       </c>
       <c r="DU27">
-        <v>8.534704687675115</v>
+        <v>8.534704687675118</v>
       </c>
       <c r="DV27">
         <v>1.999983163780237</v>
@@ -13817,7 +13818,7 @@
         <v>3.248277091496504</v>
       </c>
       <c r="Y28">
-        <v>0.001488879225464923</v>
+        <v>0.001488879225465034</v>
       </c>
       <c r="Z28">
         <v>0.0006400000000000294</v>
@@ -13985,13 +13986,13 @@
         <v>0.001088109893173872</v>
       </c>
       <c r="CC28">
-        <v>0.0004636993961586455</v>
+        <v>0.0004636993961577573</v>
       </c>
       <c r="CD28">
         <v>0.08689567413640908</v>
       </c>
       <c r="CE28">
-        <v>0.4511091511162917</v>
+        <v>0.4511091511162899</v>
       </c>
       <c r="CF28">
         <v>0.001310685425742086</v>
@@ -14012,7 +14013,7 @@
         <v>0.001088109893173872</v>
       </c>
       <c r="CL28">
-        <v>0.0004636993961586455</v>
+        <v>0.0004636993961577573</v>
       </c>
       <c r="CM28">
         <v>0.08689567413640908</v>
@@ -14117,7 +14118,7 @@
         <v>0.004325259235626794</v>
       </c>
       <c r="DU28">
-        <v>0.001426865810097766</v>
+        <v>0.001426865810101319</v>
       </c>
       <c r="DV28">
         <v>0.002146440678705064</v>
@@ -14215,7 +14216,7 @@
         <v>433.4619006277429</v>
       </c>
       <c r="Y29">
-        <v>0.9018376283153727</v>
+        <v>0.9018376283153726</v>
       </c>
       <c r="Z29">
         <v>0.36858</v>
@@ -14383,13 +14384,13 @@
         <v>4.419916575002755</v>
       </c>
       <c r="CC29">
-        <v>4.245051713941523</v>
+        <v>4.245051713941524</v>
       </c>
       <c r="CD29">
         <v>1.729356706822647</v>
       </c>
       <c r="CE29">
-        <v>6.532890941731766</v>
+        <v>6.532890941731768</v>
       </c>
       <c r="CF29">
         <v>4.245053626364541</v>
@@ -14410,7 +14411,7 @@
         <v>4.419916575002755</v>
       </c>
       <c r="CL29">
-        <v>4.245051713941523</v>
+        <v>4.245051713941524</v>
       </c>
       <c r="CM29">
         <v>1.729356706822647</v>
@@ -14515,7 +14516,7 @@
         <v>0.004333704919827257</v>
       </c>
       <c r="DU29">
-        <v>8.534704687675115</v>
+        <v>8.534704687675118</v>
       </c>
       <c r="DV29">
         <v>1.997836723101532</v>
@@ -15023,7 +15024,7 @@
         <v>443.7683474914424</v>
       </c>
       <c r="Y31">
-        <v>0.8881427352266786</v>
+        <v>0.8881427352266783</v>
       </c>
       <c r="Z31">
         <v>0.30315</v>
@@ -15350,7 +15351,7 @@
         <v>1.26112</v>
       </c>
       <c r="ED31">
-        <v>0.08077777777777777</v>
+        <v>0.08077777777777778</v>
       </c>
     </row>
     <row r="32" spans="1:134">
@@ -15391,7 +15392,7 @@
         <v>443.7683474914424</v>
       </c>
       <c r="Y32">
-        <v>0.8881427352266786</v>
+        <v>0.8881427352266783</v>
       </c>
       <c r="Z32">
         <v>0.30315</v>
@@ -15718,7 +15719,7 @@
         <v>1.26112</v>
       </c>
       <c r="ED32">
-        <v>0.08077777777777777</v>
+        <v>0.08077777777777778</v>
       </c>
     </row>
     <row r="33" spans="1:134">
@@ -16121,7 +16122,7 @@
         <v>443.7683474914424</v>
       </c>
       <c r="Y34">
-        <v>0.8881427352266786</v>
+        <v>0.8881427352266783</v>
       </c>
       <c r="Z34">
         <v>0.30315</v>
@@ -16483,7 +16484,7 @@
         <v>443.7683474914424</v>
       </c>
       <c r="Y35">
-        <v>0.8881427352266786</v>
+        <v>0.8881427352266783</v>
       </c>
       <c r="Z35">
         <v>0.30315</v>
@@ -17243,7 +17244,7 @@
         <v>443.7683474914424</v>
       </c>
       <c r="Y37">
-        <v>0.8881427352266786</v>
+        <v>0.8881427352266783</v>
       </c>
       <c r="Z37">
         <v>0.30315</v>
@@ -17570,7 +17571,7 @@
         <v>1.26112</v>
       </c>
       <c r="ED37">
-        <v>0.08077777777777777</v>
+        <v>0.08077777777777778</v>
       </c>
     </row>
     <row r="38" spans="1:134">
@@ -17647,7 +17648,7 @@
         <v>443.7683474914424</v>
       </c>
       <c r="Y38">
-        <v>0.8881427352266786</v>
+        <v>0.8881427352266783</v>
       </c>
       <c r="Z38">
         <v>0.30315</v>
@@ -17974,7 +17975,7 @@
         <v>1.26112</v>
       </c>
       <c r="ED38">
-        <v>0.08077777777777777</v>
+        <v>0.08077777777777778</v>
       </c>
     </row>
     <row r="39" spans="1:134">
@@ -18051,7 +18052,7 @@
         <v>596.0480529227942</v>
       </c>
       <c r="Y39">
-        <v>0.8633487160331299</v>
+        <v>0.8633487160331301</v>
       </c>
       <c r="Z39">
         <v>0.42702</v>
@@ -18339,7 +18340,7 @@
         <v>1.552212366880609E-05</v>
       </c>
       <c r="DQ39">
-        <v>2.810306854512629E-05</v>
+        <v>2.810205718863311E-05</v>
       </c>
       <c r="DR39">
         <v>4.21909345088788E-06</v>
@@ -18737,7 +18738,7 @@
         <v>7.149541084204371E-05</v>
       </c>
       <c r="DO40">
-        <v>4.371455198515299E-05</v>
+        <v>4.371390181445467E-05</v>
       </c>
       <c r="DP40">
         <v>6.570518316373855E-06</v>
@@ -18782,7 +18783,7 @@
         <v>3.97077</v>
       </c>
       <c r="ED40">
-        <v>0.2525833333333334</v>
+        <v>0.2525833333333333</v>
       </c>
     </row>
     <row r="41" spans="1:134">
@@ -18823,7 +18824,7 @@
         <v>593.3989743409982</v>
       </c>
       <c r="Y41">
-        <v>0.8660672284745767</v>
+        <v>0.8660672284745768</v>
       </c>
       <c r="Z41">
         <v>0.4283045522017319</v>
@@ -19105,13 +19106,13 @@
         <v>7.047570753419096E-05</v>
       </c>
       <c r="DO41">
-        <v>5.293839283952789E-05</v>
+        <v>5.293784338018445E-05</v>
       </c>
       <c r="DP41">
         <v>7.957120797423334E-06</v>
       </c>
       <c r="DQ41">
-        <v>1.431610576680985E-05</v>
+        <v>1.431594910782329E-05</v>
       </c>
       <c r="DR41">
         <v>2.147750890534757E-06</v>
@@ -19191,7 +19192,7 @@
         <v>1.603914734270274</v>
       </c>
       <c r="Y42">
-        <v>0.001645954253715367</v>
+        <v>0.001645954253715253</v>
       </c>
       <c r="Z42">
         <v>0.0007777467295440257</v>
@@ -19473,13 +19474,13 @@
         <v>3.368351365446342E-06</v>
       </c>
       <c r="DO42">
-        <v>3.046880077492078E-05</v>
+        <v>3.04691334513249E-05</v>
       </c>
       <c r="DP42">
         <v>4.580316965146791E-06</v>
       </c>
       <c r="DQ42">
-        <v>8.347473303711727E-06</v>
+        <v>8.346955817392666E-06</v>
       </c>
       <c r="DR42">
         <v>1.254117894086386E-06</v>
@@ -19553,7 +19554,7 @@
         <v>592.9134201387772</v>
       </c>
       <c r="Y43">
-        <v>0.8633487160331299</v>
+        <v>0.8633487160331301</v>
       </c>
       <c r="Z43">
         <v>0.42702</v>
@@ -19835,7 +19836,7 @@
         <v>6.491242710069131E-05</v>
       </c>
       <c r="DO43">
-        <v>4.371455198515299E-05</v>
+        <v>4.371390181445467E-05</v>
       </c>
       <c r="DP43">
         <v>6.570518316373855E-06</v>
@@ -20203,7 +20204,7 @@
         <v>1.552212366880609E-05</v>
       </c>
       <c r="DQ44">
-        <v>2.810306854512629E-05</v>
+        <v>2.810205718863311E-05</v>
       </c>
       <c r="DR44">
         <v>4.21909345088788E-06</v>
@@ -20277,7 +20278,7 @@
         <v>3.134632784017072</v>
       </c>
       <c r="Y45">
-        <v>0.003216793296082487</v>
+        <v>0.003216793296082265</v>
       </c>
       <c r="Z45">
         <v>0.001519999999999966</v>
@@ -20559,13 +20560,13 @@
         <v>6.582983741352402E-06</v>
       </c>
       <c r="DO45">
-        <v>5.954711915668291E-05</v>
+        <v>5.954776932738123E-05</v>
       </c>
       <c r="DP45">
         <v>8.951605352432235E-06</v>
       </c>
       <c r="DQ45">
-        <v>1.631399906892608E-05</v>
+        <v>1.63129877124329E-05</v>
       </c>
       <c r="DR45">
         <v>2.451002526399381E-06</v>
@@ -20957,7 +20958,7 @@
         <v>7.149541084204371E-05</v>
       </c>
       <c r="DO46">
-        <v>4.371455198515299E-05</v>
+        <v>4.371390181445467E-05</v>
       </c>
       <c r="DP46">
         <v>6.570518316373855E-06</v>
@@ -21002,7 +21003,7 @@
         <v>3.97077</v>
       </c>
       <c r="ED46">
-        <v>0.2525833333333334</v>
+        <v>0.2525833333333333</v>
       </c>
     </row>
     <row r="47" spans="1:134">
@@ -21361,7 +21362,7 @@
         <v>7.149541084204371E-05</v>
       </c>
       <c r="DO47">
-        <v>4.371455198515299E-05</v>
+        <v>4.371390181445467E-05</v>
       </c>
       <c r="DP47">
         <v>6.570518316373855E-06</v>
@@ -21406,7 +21407,7 @@
         <v>3.97077</v>
       </c>
       <c r="ED47">
-        <v>0.2525833333333334</v>
+        <v>0.2525833333333333</v>
       </c>
     </row>
     <row r="48" spans="1:134">
@@ -24787,7 +24788,7 @@
         <v>5.608029957123981</v>
       </c>
       <c r="DM56">
-        <v>0.0006999270676467058</v>
+        <v>0.0006999271082533774</v>
       </c>
       <c r="DN56">
         <v>0.0001042552352769579</v>
@@ -24799,7 +24800,7 @@
         <v>7.129435274898631E-06</v>
       </c>
       <c r="DQ56">
-        <v>8.1933473505178E-05</v>
+        <v>8.193312661680161E-05</v>
       </c>
       <c r="DR56">
         <v>1.22713652149821E-05</v>
@@ -25155,7 +25156,7 @@
         <v>5.608029957123981</v>
       </c>
       <c r="DM57">
-        <v>0.0006999270676467058</v>
+        <v>0.0006999271082533774</v>
       </c>
       <c r="DN57">
         <v>0.0001042552352769579</v>
@@ -25167,7 +25168,7 @@
         <v>7.129435274898631E-06</v>
       </c>
       <c r="DQ57">
-        <v>8.1933473505178E-05</v>
+        <v>8.193312661680161E-05</v>
       </c>
       <c r="DR57">
         <v>1.22713652149821E-05</v>
@@ -25885,7 +25886,7 @@
         <v>5.608029957123981</v>
       </c>
       <c r="DM59">
-        <v>0.0006999270676467058</v>
+        <v>0.0006999271082533774</v>
       </c>
       <c r="DN59">
         <v>0.0001042552352769579</v>
@@ -25897,7 +25898,7 @@
         <v>7.129435274898631E-06</v>
       </c>
       <c r="DQ59">
-        <v>8.1933473505178E-05</v>
+        <v>8.193312661680161E-05</v>
       </c>
       <c r="DR59">
         <v>1.22713652149821E-05</v>
@@ -26247,7 +26248,7 @@
         <v>5.608029957123981</v>
       </c>
       <c r="DM60">
-        <v>0.0006999270676467058</v>
+        <v>0.0006999271082533774</v>
       </c>
       <c r="DN60">
         <v>0.0001042552352769579</v>
@@ -26259,7 +26260,7 @@
         <v>7.129435274898631E-06</v>
       </c>
       <c r="DQ60">
-        <v>8.1933473505178E-05</v>
+        <v>8.193312661680161E-05</v>
       </c>
       <c r="DR60">
         <v>1.22713652149821E-05</v>
@@ -27007,7 +27008,7 @@
         <v>5.608029957123981</v>
       </c>
       <c r="DM62">
-        <v>0.0006999270676467058</v>
+        <v>0.0006999271082533774</v>
       </c>
       <c r="DN62">
         <v>0.0001042552352769579</v>
@@ -27019,7 +27020,7 @@
         <v>7.129435274898631E-06</v>
       </c>
       <c r="DQ62">
-        <v>8.1933473505178E-05</v>
+        <v>8.193312661680161E-05</v>
       </c>
       <c r="DR62">
         <v>1.22713652149821E-05</v>
@@ -27411,7 +27412,7 @@
         <v>5.608029957123981</v>
       </c>
       <c r="DM63">
-        <v>0.0006999270676467058</v>
+        <v>0.0006999271082533774</v>
       </c>
       <c r="DN63">
         <v>0.0001042552352769579</v>
@@ -27423,7 +27424,7 @@
         <v>7.129435274898631E-06</v>
       </c>
       <c r="DQ63">
-        <v>8.1933473505178E-05</v>
+        <v>8.193312661680161E-05</v>
       </c>
       <c r="DR63">
         <v>1.22713652149821E-05</v>
@@ -30855,10 +30856,10 @@
         <v>547.0668505608598</v>
       </c>
       <c r="CA2">
-        <v>0.8667558188749543</v>
+        <v>0.8667558188749545</v>
       </c>
       <c r="CB2">
-        <v>0.00418840607455555</v>
+        <v>0.004188406074555623</v>
       </c>
       <c r="CC2">
         <v>0.8642710651078981</v>
@@ -30873,7 +30874,7 @@
         <v>0.8642710651078981</v>
       </c>
       <c r="CG2">
-        <v>0.869423804096683</v>
+        <v>0.8694238040966833</v>
       </c>
       <c r="CH2">
         <v>0.5670291342608552</v>
@@ -32139,16 +32140,16 @@
         <v>7.06124153031369</v>
       </c>
       <c r="SM2">
-        <v>0.9114130789851559</v>
+        <v>0.9114130789851562</v>
       </c>
       <c r="SN2">
         <v>6.562099526687657</v>
       </c>
       <c r="SO2">
-        <v>9.209992675346978</v>
+        <v>9.20999267534698</v>
       </c>
       <c r="SP2">
-        <v>2.647893148659321</v>
+        <v>2.647893148659323</v>
       </c>
       <c r="SQ2">
         <v>6.562099526687657</v>
@@ -32349,16 +32350,16 @@
         <v>1.9253451599214</v>
       </c>
       <c r="VE2">
-        <v>0.04441161305758681</v>
+        <v>0.04441161305758674</v>
       </c>
       <c r="VF2">
-        <v>1.863355859278086</v>
+        <v>1.863355859278087</v>
       </c>
       <c r="VG2">
         <v>1.95</v>
       </c>
       <c r="VH2">
-        <v>0.08664414072191406</v>
+        <v>0.08664414072191295</v>
       </c>
       <c r="VI2">
         <v>1.95</v>
@@ -32958,7 +32959,7 @@
         <v>7.834384253058787</v>
       </c>
       <c r="ACZ2">
-        <v>0.009141796647095878</v>
+        <v>0.009141796647094998</v>
       </c>
       <c r="ADA2">
         <v>7.810771935393404</v>
@@ -33359,25 +33360,25 @@
         <v>634.9127927439674</v>
       </c>
       <c r="CA3">
-        <v>0.8465777597593026</v>
+        <v>0.8465777597593028</v>
       </c>
       <c r="CB3">
-        <v>0.0004242116464224788</v>
+        <v>0.0004242116464223217</v>
       </c>
       <c r="CC3">
-        <v>0.846277796827459</v>
+        <v>0.8462777968274593</v>
       </c>
       <c r="CD3">
-        <v>0.8468777226911463</v>
+        <v>0.8468777226911464</v>
       </c>
       <c r="CE3">
-        <v>0.0005999258636872895</v>
+        <v>0.0005999258636870675</v>
       </c>
       <c r="CF3">
-        <v>0.846277796827459</v>
+        <v>0.8462777968274593</v>
       </c>
       <c r="CG3">
-        <v>0.8468777226911463</v>
+        <v>0.8468777226911464</v>
       </c>
       <c r="CH3">
         <v>0.45993</v>
@@ -35863,22 +35864,22 @@
         <v>430.2136235362464</v>
       </c>
       <c r="CA4">
-        <v>0.9023686425488605</v>
+        <v>0.9023686425488604</v>
       </c>
       <c r="CB4">
-        <v>0.001008602939217907</v>
+        <v>0.001008602939217982</v>
       </c>
       <c r="CC4">
-        <v>0.9018376283153727</v>
+        <v>0.9018376283153726</v>
       </c>
       <c r="CD4">
         <v>0.9033265075408377</v>
       </c>
       <c r="CE4">
-        <v>0.001488879225464923</v>
+        <v>0.001488879225465034</v>
       </c>
       <c r="CF4">
-        <v>0.9018376283153727</v>
+        <v>0.9018376283153726</v>
       </c>
       <c r="CG4">
         <v>0.9033265075408377</v>
@@ -37039,22 +37040,22 @@
         <v>4.421004684895929</v>
       </c>
       <c r="RC4">
-        <v>4.245217094030927</v>
+        <v>4.245217094030928</v>
       </c>
       <c r="RD4">
-        <v>0.0003141212301710611</v>
+        <v>0.0003141212301704594</v>
       </c>
       <c r="RE4">
-        <v>4.245051713941523</v>
+        <v>4.245051713941524</v>
       </c>
       <c r="RF4">
         <v>4.245515413337682</v>
       </c>
       <c r="RG4">
-        <v>0.0004636993961586455</v>
+        <v>0.0004636993961577573</v>
       </c>
       <c r="RH4">
-        <v>4.245051713941523</v>
+        <v>4.245051713941524</v>
       </c>
       <c r="RI4">
         <v>4.245515413337682</v>
@@ -37081,22 +37082,22 @@
         <v>1.816252380959056</v>
       </c>
       <c r="RQ4">
-        <v>6.693780674090358</v>
+        <v>6.693780674090359</v>
       </c>
       <c r="RR4">
-        <v>0.3055922924721511</v>
+        <v>0.3055922924721499</v>
       </c>
       <c r="RS4">
-        <v>6.532890941731766</v>
+        <v>6.532890941731768</v>
       </c>
       <c r="RT4">
         <v>6.984000092848058</v>
       </c>
       <c r="RU4">
-        <v>0.4511091511162917</v>
+        <v>0.4511091511162899</v>
       </c>
       <c r="RV4">
-        <v>6.532890941731766</v>
+        <v>6.532890941731768</v>
       </c>
       <c r="RW4">
         <v>6.984000092848058</v>
@@ -37228,22 +37229,22 @@
         <v>4.421004684895929</v>
       </c>
       <c r="TN4">
-        <v>4.245217094030927</v>
+        <v>4.245217094030928</v>
       </c>
       <c r="TO4">
-        <v>0.0003141212301710611</v>
+        <v>0.0003141212301704594</v>
       </c>
       <c r="TP4">
-        <v>4.245051713941523</v>
+        <v>4.245051713941524</v>
       </c>
       <c r="TQ4">
         <v>4.245515413337682</v>
       </c>
       <c r="TR4">
-        <v>0.0004636993961586455</v>
+        <v>0.0004636993961577573</v>
       </c>
       <c r="TS4">
-        <v>4.245051713941523</v>
+        <v>4.245051713941524</v>
       </c>
       <c r="TT4">
         <v>4.245515413337682</v>
@@ -37963,22 +37964,22 @@
         <v>8.445684200463262E-06</v>
       </c>
       <c r="ACY4">
-        <v>8.534195790753538</v>
+        <v>8.534195790753541</v>
       </c>
       <c r="ACZ4">
-        <v>0.0009665935458833165</v>
+        <v>0.0009665935458857233</v>
       </c>
       <c r="ADA4">
         <v>8.533277821865017</v>
       </c>
       <c r="ADB4">
-        <v>8.534704687675115</v>
+        <v>8.534704687675118</v>
       </c>
       <c r="ADC4">
-        <v>0.001426865810097766</v>
+        <v>0.001426865810101319</v>
       </c>
       <c r="ADD4">
-        <v>8.534704687675115</v>
+        <v>8.534704687675118</v>
       </c>
       <c r="ADE4">
         <v>8.533277821865017</v>
@@ -38367,25 +38368,25 @@
         <v>443.7683474914424</v>
       </c>
       <c r="CA5">
-        <v>0.8881427352266786</v>
+        <v>0.8881427352266783</v>
       </c>
       <c r="CB5">
         <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.8881427352266786</v>
+        <v>0.8881427352266783</v>
       </c>
       <c r="CD5">
-        <v>0.8881427352266786</v>
+        <v>0.8881427352266783</v>
       </c>
       <c r="CE5">
         <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.8881427352266786</v>
+        <v>0.8881427352266783</v>
       </c>
       <c r="CG5">
-        <v>0.8881427352266786</v>
+        <v>0.8881427352266783</v>
       </c>
       <c r="CH5">
         <v>0.30315</v>
@@ -40871,19 +40872,19 @@
         <v>592.9134201387772</v>
       </c>
       <c r="CA6">
-        <v>0.8660672284745767</v>
+        <v>0.8660672284745768</v>
       </c>
       <c r="CB6">
-        <v>0.001645954253715367</v>
+        <v>0.001645954253715253</v>
       </c>
       <c r="CC6">
-        <v>0.8633487160331299</v>
+        <v>0.8633487160331301</v>
       </c>
       <c r="CD6">
         <v>0.8665655093292124</v>
       </c>
       <c r="CE6">
-        <v>0.003216793296082487</v>
+        <v>0.003216793296082265</v>
       </c>
       <c r="CF6">
         <v>0.8665655093292124</v>
@@ -42845,25 +42846,25 @@
         <v>7.149541084204371E-05</v>
       </c>
       <c r="ABI6">
-        <v>5.293839283952789E-05</v>
+        <v>5.293784338018445E-05</v>
       </c>
       <c r="ABJ6">
-        <v>3.046880077492078E-05</v>
+        <v>3.04691334513249E-05</v>
       </c>
       <c r="ABK6">
-        <v>4.371455198515299E-05</v>
+        <v>4.371390181445467E-05</v>
       </c>
       <c r="ABL6">
         <v>0.0001032616711418359</v>
       </c>
       <c r="ABM6">
-        <v>5.954711915668291E-05</v>
+        <v>5.954776932738123E-05</v>
       </c>
       <c r="ABN6">
-        <v>4.371455198515299E-05</v>
+        <v>4.371390181445467E-05</v>
       </c>
       <c r="ABO6">
-        <v>4.371455198515299E-05</v>
+        <v>4.371390181445467E-05</v>
       </c>
       <c r="ABP6">
         <v>7.957120797423334E-06</v>
@@ -42887,19 +42888,19 @@
         <v>6.570518316373855E-06</v>
       </c>
       <c r="ABW6">
-        <v>1.431610576680985E-05</v>
+        <v>1.431594910782329E-05</v>
       </c>
       <c r="ABX6">
-        <v>8.347473303711727E-06</v>
+        <v>8.346955817392666E-06</v>
       </c>
       <c r="ABY6">
         <v>1.178906947620021E-05</v>
       </c>
       <c r="ABZ6">
-        <v>2.810306854512629E-05</v>
+        <v>2.810205718863311E-05</v>
       </c>
       <c r="ACA6">
-        <v>1.631399906892608E-05</v>
+        <v>1.63129877124329E-05</v>
       </c>
       <c r="ACB6">
         <v>1.178906947620021E-05</v>
@@ -47811,25 +47812,25 @@
         <v>5.608029957123981</v>
       </c>
       <c r="AAU8">
-        <v>0.0006999270676467058</v>
+        <v>0.0006999271082533774</v>
       </c>
       <c r="AAV8">
         <v>0</v>
       </c>
       <c r="AAW8">
-        <v>0.0006999270676467058</v>
+        <v>0.0006999271082533774</v>
       </c>
       <c r="AAX8">
-        <v>0.0006999270676467058</v>
+        <v>0.0006999271082533774</v>
       </c>
       <c r="AAY8">
         <v>0</v>
       </c>
       <c r="AAZ8">
-        <v>0.0006999270676467058</v>
+        <v>0.0006999271082533774</v>
       </c>
       <c r="ABA8">
-        <v>0.0006999270676467058</v>
+        <v>0.0006999271082533774</v>
       </c>
       <c r="ABB8">
         <v>0.0001042552352769579</v>
@@ -47895,25 +47896,25 @@
         <v>7.129435274898631E-06</v>
       </c>
       <c r="ABW8">
-        <v>8.1933473505178E-05</v>
+        <v>8.193312661680161E-05</v>
       </c>
       <c r="ABX8">
         <v>0</v>
       </c>
       <c r="ABY8">
-        <v>8.1933473505178E-05</v>
+        <v>8.193312661680161E-05</v>
       </c>
       <c r="ABZ8">
-        <v>8.1933473505178E-05</v>
+        <v>8.193312661680161E-05</v>
       </c>
       <c r="ACA8">
         <v>0</v>
       </c>
       <c r="ACB8">
-        <v>8.1933473505178E-05</v>
+        <v>8.193312661680161E-05</v>
       </c>
       <c r="ACC8">
-        <v>8.1933473505178E-05</v>
+        <v>8.193312661680161E-05</v>
       </c>
       <c r="ACD8">
         <v>1.22713652149821E-05</v>
